--- a/usuarios1.xlsx
+++ b/usuarios1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\phoenix\flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE665B9-4DAE-4A50-82E5-71E698640292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B383FBEA-0283-4C05-A5C3-DD004BA70E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{2D155BBC-D73D-46F5-BE2C-B5665795BB38}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>numero_token</t>
   </si>
@@ -59,20 +59,34 @@
     <t>campaing</t>
   </si>
   <si>
-    <t>Portabilidad</t>
-  </si>
-  <si>
-    <t>Anyela Marcela Sierra Vanegas</t>
+    <t>Claro TyT</t>
+  </si>
+  <si>
+    <t>Supervisorventastyt@gsco.com.co</t>
+  </si>
+  <si>
+    <t>jennifer</t>
+  </si>
+  <si>
+    <t>Jennifer Monroy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,13 +109,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,13 +454,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -471,29 +488,31 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1019100579</v>
+        <v>87654345</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>3114813698</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1019100579</v>
-      </c>
-      <c r="F2" t="str">
-        <f>E2&amp;"@qmas.com"</f>
-        <v>1019100579@qmas.com</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{AA47EBED-768C-4119-9700-A9315C215040}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/usuarios1.xlsx
+++ b/usuarios1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\phoenix\flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B383FBEA-0283-4C05-A5C3-DD004BA70E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F555519-B5E0-4151-9A02-11DC22BFE7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{2D155BBC-D73D-46F5-BE2C-B5665795BB38}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>numero_token</t>
   </si>
@@ -59,16 +59,13 @@
     <t>campaing</t>
   </si>
   <si>
-    <t>Claro TyT</t>
-  </si>
-  <si>
-    <t>Supervisorventastyt@gsco.com.co</t>
-  </si>
-  <si>
-    <t>jennifer</t>
-  </si>
-  <si>
-    <t>Jennifer Monroy</t>
+    <t>Portabilidad</t>
+  </si>
+  <si>
+    <t>Andres Felipe Gutiérrez Velásquez</t>
+  </si>
+  <si>
+    <t>1033812649@qmas.com</t>
   </si>
 </sst>
 </file>
@@ -454,12 +451,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F2" sqref="E1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -488,22 +486,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>87654345</v>
+        <v>1033812649</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>3114813698</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1033812649</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -511,7 +509,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{AA47EBED-768C-4119-9700-A9315C215040}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E4A03630-E2DD-4AAC-ABF3-59E2472A1C69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/usuarios1.xlsx
+++ b/usuarios1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\phoenix\flask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FLASH\flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F555519-B5E0-4151-9A02-11DC22BFE7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F7332F-BEF4-4F9F-8DC5-03F76BA85AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{2D155BBC-D73D-46F5-BE2C-B5665795BB38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2D155BBC-D73D-46F5-BE2C-B5665795BB38}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>numero_token</t>
   </si>
@@ -59,31 +59,23 @@
     <t>campaing</t>
   </si>
   <si>
-    <t>Portabilidad</t>
-  </si>
-  <si>
-    <t>Andres Felipe Gutiérrez Velásquez</t>
-  </si>
-  <si>
-    <t>1033812649@qmas.com</t>
+    <t>Claro TyT</t>
+  </si>
+  <si>
+    <t>Caren Lorena Gallego Peña</t>
+  </si>
+  <si>
+    <t>Michell Mesa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,16 +98,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,21 +439,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F80EB0-6B6A-4540-A740-E5FAA8D34F23}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="E1:F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -484,9 +473,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1033812649</v>
+        <v>1000983509</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -495,22 +484,44 @@
         <v>3114813698</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1033812649</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>1000983509</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>_xlfn.CONCAT(E2,"@qmas.com")</f>
+        <v>1000983509@qmas.com</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1001315941</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>3114813698</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1001315941</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>_xlfn.CONCAT(E3,"@qmas.com")</f>
+        <v>1001315941@qmas.com</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{E4A03630-E2DD-4AAC-ABF3-59E2472A1C69}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/usuarios1.xlsx
+++ b/usuarios1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FLASH\flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F7332F-BEF4-4F9F-8DC5-03F76BA85AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5135F78-A188-494F-AD5E-CB77BF6648CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2D155BBC-D73D-46F5-BE2C-B5665795BB38}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>numero_token</t>
   </si>
@@ -62,10 +62,7 @@
     <t>Claro TyT</t>
   </si>
   <si>
-    <t>Caren Lorena Gallego Peña</t>
-  </si>
-  <si>
-    <t>Michell Mesa</t>
+    <t>Stefany Jimenez</t>
   </si>
 </sst>
 </file>
@@ -101,9 +98,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -439,9 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F80EB0-6B6A-4540-A740-E5FAA8D34F23}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -451,7 +449,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -475,7 +473,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1000983509</v>
+        <v>1000588257</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -487,37 +485,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1000983509</v>
-      </c>
-      <c r="F2" s="1" t="str">
+        <v>1000588257</v>
+      </c>
+      <c r="F2" t="str">
         <f>_xlfn.CONCAT(E2,"@qmas.com")</f>
-        <v>1000983509@qmas.com</v>
+        <v>1000588257@qmas.com</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1001315941</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>3114813698</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1001315941</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f>_xlfn.CONCAT(E3,"@qmas.com")</f>
-        <v>1001315941@qmas.com</v>
-      </c>
-      <c r="G3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/usuarios1.xlsx
+++ b/usuarios1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FLASH\flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5135F78-A188-494F-AD5E-CB77BF6648CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF8BA0-8738-4AC8-B2C2-99718504A9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2D155BBC-D73D-46F5-BE2C-B5665795BB38}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>Claro TyT</t>
   </si>
   <si>
-    <t>Stefany Jimenez</t>
+    <t>Luisa Mozo</t>
   </si>
 </sst>
 </file>
@@ -98,9 +98,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,9 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F80EB0-6B6A-4540-A740-E5FAA8D34F23}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -449,7 +446,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -473,7 +470,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1000588257</v>
+        <v>1000132531</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -485,11 +482,11 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1000588257</v>
+        <v>1000132531</v>
       </c>
       <c r="F2" t="str">
         <f>_xlfn.CONCAT(E2,"@qmas.com")</f>
-        <v>1000588257@qmas.com</v>
+        <v>1000132531@qmas.com</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>

--- a/usuarios1.xlsx
+++ b/usuarios1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FLASH\flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF8BA0-8738-4AC8-B2C2-99718504A9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB854EEA-190F-42EF-B25D-8A4F1122BF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2D155BBC-D73D-46F5-BE2C-B5665795BB38}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>numero_token</t>
   </si>
@@ -62,7 +62,58 @@
     <t>Claro TyT</t>
   </si>
   <si>
-    <t>Luisa Mozo</t>
+    <t>Laura Ximena Granados Ortiz</t>
+  </si>
+  <si>
+    <t>Cindy Natalia Gonzalez Gonzalez</t>
+  </si>
+  <si>
+    <t>Felipe Ipuz Toro</t>
+  </si>
+  <si>
+    <t>Sebastian Guzman Barbosa</t>
+  </si>
+  <si>
+    <t>Wilson Nicolas Fraile Briceño</t>
+  </si>
+  <si>
+    <t>Royer Santiago Soto</t>
+  </si>
+  <si>
+    <t>Esteven Eduardo Torres</t>
+  </si>
+  <si>
+    <t>Astrid Carolina Marin Otalora</t>
+  </si>
+  <si>
+    <t>Michael Steven Sutachan Paez</t>
+  </si>
+  <si>
+    <t>1070922246</t>
+  </si>
+  <si>
+    <t>1136882247</t>
+  </si>
+  <si>
+    <t>1053779508</t>
+  </si>
+  <si>
+    <t>1014285389</t>
+  </si>
+  <si>
+    <t>1020788095</t>
+  </si>
+  <si>
+    <t>1000733128</t>
+  </si>
+  <si>
+    <t>1021670403</t>
+  </si>
+  <si>
+    <t>1001068002</t>
+  </si>
+  <si>
+    <t>1000727443</t>
   </si>
 </sst>
 </file>
@@ -434,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F80EB0-6B6A-4540-A740-E5FAA8D34F23}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,26 +520,218 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1000132531</v>
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>3114813698</v>
+        <v>3138311716</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1000132531</v>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
       <c r="F2" t="str">
         <f>_xlfn.CONCAT(E2,"@qmas.com")</f>
-        <v>1000132531@qmas.com</v>
+        <v>1070922246@qmas.com</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>3138311716</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F10" si="0">_xlfn.CONCAT(E3,"@qmas.com")</f>
+        <v>1136882247@qmas.com</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>3138311716</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>1053779508@qmas.com</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>3138311716</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>1014285389@qmas.com</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>3138311716</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>1020788095@qmas.com</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>3138311716</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>1000733128@qmas.com</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>3138311716</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>1021670403@qmas.com</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>3138311716</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>1001068002@qmas.com</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>3138311716</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>1000727443@qmas.com</v>
+      </c>
+      <c r="G10" t="s">
         <v>7</v>
       </c>
     </row>

--- a/usuarios1.xlsx
+++ b/usuarios1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FLASH\flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB854EEA-190F-42EF-B25D-8A4F1122BF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75CB52C-B0AB-4825-BDCB-45372E669673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2D155BBC-D73D-46F5-BE2C-B5665795BB38}"/>
+    <workbookView xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{2D155BBC-D73D-46F5-BE2C-B5665795BB38}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>numero_token</t>
   </si>
@@ -62,66 +62,23 @@
     <t>Claro TyT</t>
   </si>
   <si>
-    <t>Laura Ximena Granados Ortiz</t>
-  </si>
-  <si>
-    <t>Cindy Natalia Gonzalez Gonzalez</t>
-  </si>
-  <si>
-    <t>Felipe Ipuz Toro</t>
-  </si>
-  <si>
-    <t>Sebastian Guzman Barbosa</t>
-  </si>
-  <si>
-    <t>Wilson Nicolas Fraile Briceño</t>
-  </si>
-  <si>
-    <t>Royer Santiago Soto</t>
-  </si>
-  <si>
-    <t>Esteven Eduardo Torres</t>
-  </si>
-  <si>
-    <t>Astrid Carolina Marin Otalora</t>
-  </si>
-  <si>
-    <t>Michael Steven Sutachan Paez</t>
-  </si>
-  <si>
-    <t>1070922246</t>
-  </si>
-  <si>
-    <t>1136882247</t>
-  </si>
-  <si>
-    <t>1053779508</t>
-  </si>
-  <si>
-    <t>1014285389</t>
-  </si>
-  <si>
-    <t>1020788095</t>
-  </si>
-  <si>
-    <t>1000733128</t>
-  </si>
-  <si>
-    <t>1021670403</t>
-  </si>
-  <si>
-    <t>1001068002</t>
-  </si>
-  <si>
-    <t>1000727443</t>
+    <t>DAIRA ALEJANDRA RAMIREZ BASTOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -149,8 +106,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,9 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F80EB0-6B6A-4540-A740-E5FAA8D34F23}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -520,8 +480,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
+      <c r="A2">
+        <v>1006732875</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -532,208 +492,19 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
+      <c r="E2">
+        <v>1006732875</v>
       </c>
       <c r="F2" t="str">
         <f>_xlfn.CONCAT(E2,"@qmas.com")</f>
-        <v>1070922246@qmas.com</v>
+        <v>1006732875@qmas.com</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>3138311716</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F10" si="0">_xlfn.CONCAT(E3,"@qmas.com")</f>
-        <v>1136882247@qmas.com</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>3138311716</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>1053779508@qmas.com</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>3138311716</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>1014285389@qmas.com</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>3138311716</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>1020788095@qmas.com</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>3138311716</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>1000733128@qmas.com</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>3138311716</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>1021670403@qmas.com</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>3138311716</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>1001068002@qmas.com</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>3138311716</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>1000727443@qmas.com</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/usuarios1.xlsx
+++ b/usuarios1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FLASH\flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75CB52C-B0AB-4825-BDCB-45372E669673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B3DAB-A333-409F-B521-FE455F56FDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{2D155BBC-D73D-46F5-BE2C-B5665795BB38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2D155BBC-D73D-46F5-BE2C-B5665795BB38}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>Claro TyT</t>
   </si>
   <si>
-    <t>DAIRA ALEJANDRA RAMIREZ BASTOS</t>
+    <t>Julian Vanegas</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1006732875</v>
+        <v>1023038056</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -493,11 +493,11 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1006732875</v>
+        <v>1023038056</v>
       </c>
       <c r="F2" t="str">
         <f>_xlfn.CONCAT(E2,"@qmas.com")</f>
-        <v>1006732875@qmas.com</v>
+        <v>1023038056@qmas.com</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
